--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -706,7 +706,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+          <t>*THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -2025,7 +2025,11 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Supv 1143</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -776,7 +776,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #093, OCONOMOWOC</t>
+          <t>FOX BROS PIGGLY WIGGLY #093, OCONOMOWOC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -852,7 +852,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #090, JACKSON</t>
+          <t>FOX BROS PIGGLY WIGGLY #090, JACKSON</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -808,7 +808,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ADDRESS TO THE MEET:
+          <t>*ADDRESS TO THE MEET:
 N77 W14435 APPLETON AVE, MENOMONEE FALLS</t>
         </is>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
+          <t>*Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
+          <t xml:space="preserve">*Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>*Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -1136,7 +1136,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>*Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
+          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">*Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
+          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>*Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -662,7 +662,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -717,7 +717,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -3508,7 +3508,12 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 1:00</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -505,8 +505,16 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -540,24 +548,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -583,12 +631,28 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -789,7 +789,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>INVENTORY TYPE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -832,7 +832,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>INVENTORY TYPE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -840,7 +840,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #093, OCONOMOWOC</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>INVENTORY TYPE</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -892,7 +892,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1300 BROWN ST</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -900,7 +900,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>INVENTORY TYPE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -908,7 +908,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>INVENTORY TYPE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -916,7 +916,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #090, JACKSON</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -935,7 +935,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WEBSTER'S MARKETPLACE, RIPON</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -951,7 +951,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MARIANO'S #503, CHICAGO - LAKESHORE EAST</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -959,8 +959,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MARIANO'S #534 +RX, 
-NEW CITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -968,7 +967,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>W194 N16774 EAGLE DR</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -987,7 +986,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1188 W FOND DU LAC STREET</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -999,7 +998,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>333 EAST BENTON PL, SUITE 206</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1007,7 +1006,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1500 N CLYBOURN AVE</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1023,7 +1022,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1082,7 +1081,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>N93 W14575 WHITTAKER WAY</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -789,7 +789,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>INVENTORY TYPE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -832,7 +832,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INVENTORY TYPE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -840,7 +840,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>FOX BROS PIGGLY WIGGLY #093, OCONOMOWOC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>INVENTORY TYPE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -892,7 +892,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>1300 BROWN ST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -900,7 +900,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>INVENTORY TYPE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -908,7 +908,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>INVENTORY TYPE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -916,7 +916,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>FOX BROS PIGGLY WIGGLY #090, JACKSON</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -935,7 +935,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>WEBSTER'S MARKETPLACE, RIPON</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -951,7 +951,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MARIANO'S #503, CHICAGO - LAKESHORE EAST</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -959,7 +959,8 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MARIANO'S #534 +RX, 
+NEW CITY</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -967,7 +968,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>W194 N16774 EAGLE DR</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -986,7 +987,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>1188 W FOND DU LAC STREET</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -998,7 +999,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>333 EAST BENTON PL, SUITE 206</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1006,7 +1007,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>1500 N CLYBOURN AVE</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1022,7 +1023,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1081,7 +1082,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>N93 W14575 WHITTAKER WAY</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1531,10 +1531,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1606,7 +1610,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1685,7 +1689,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1748,7 +1752,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1807,7 +1811,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1887,7 +1891,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1959,21 +1963,9 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2103,7 +2095,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2168,7 +2164,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2239,7 +2235,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #142, SUSSEX</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2306,7 +2302,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #142, SUSSEX</t>
+          <t>N63 W23735 MAIN ST</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2385,7 +2381,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N63 W23735 MAIN ST</t>
+          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2460,7 +2456,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UHB7SgmVy27KNfWS7</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2533,11 +2529,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2575,9 +2567,21 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2612,19 +2616,15 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2667,12 +2667,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2718,12 +2718,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2769,12 +2769,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2821,12 +2821,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2874,16 +2874,8 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2981,7 +2973,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -3034,7 +3030,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3085,7 +3081,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3148,7 +3144,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3207,7 +3203,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>BP, GREEN BAY</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3271,7 +3267,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BP, GREEN BAY</t>
+          <t>3285 CEDAR HEDGE LANE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3323,7 +3319,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3285 CEDAR HEDGE LANE</t>
+          <t>https://maps.app.goo.gl/nvSeiSiwMJnSaLmy8</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3373,11 +3369,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/nvSeiSiwMJnSaLmy8</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3423,9 +3415,21 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
@@ -3472,17 +3476,18 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3529,22 +3534,9 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2854,12 +2854,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd Day, work w/ Nate</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3301,9 +3301,22 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3397,11 +3410,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3458,7 +3467,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3518,7 +3527,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3545,12 +3554,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>1st Day, work w/ Michael</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3574,7 +3583,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3601,13 +3610,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3626,7 +3634,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
+          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3653,12 +3661,13 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3675,7 +3684,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3700,7 +3713,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3725,16 +3738,8 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3759,12 +3764,13 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3780,8 +3786,16 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3806,13 +3820,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3823,12 +3836,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd Day, work w/ Michael</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3858,12 +3871,13 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3874,7 +3888,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3884,11 +3898,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3929,7 +3939,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3941,7 +3951,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3961,9 +3971,21 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -3972,17 +3994,22 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -4004,9 +4031,21 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4028,11 +4067,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -4061,17 +4096,13 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4094,13 +4125,17 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4131,7 +4166,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>ITEM LEVEL-SCAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4162,7 +4197,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
+          <t>ITEM LEVEL-SCAN</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4193,7 +4228,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3811 SPRING ST</t>
+          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4224,7 +4259,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+          <t>3811 SPRING ST</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4253,7 +4288,11 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -4279,22 +4318,9 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4321,15 +4347,20 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4341,6 +4372,41 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -821,7 +821,8 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>11:00 REQUIRED MEET AT MENOMONEE FALLS PICK N SAVE</t>
+          <t>11:00 REQUIRED MEET AT 
+TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -872,8 +873,8 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>*ADDRESS TO THE MEET:
-N77 W14435 APPLETON AVE, MENOMONEE FALLS</t>
+          <t>ADDRESS TO THE MEET:
+W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -873,7 +873,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ADDRESS TO THE MEET:
+          <t>*ADDRESS TO THE MEET:
 W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
         </is>
       </c>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -2701,7 +2701,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2804,10 +2804,14 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>3rd Day, work w/ Nate</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2855,12 +2859,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>3rd Day, work w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2898,7 +2902,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2953,7 +2957,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -3008,7 +3012,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3059,7 +3063,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3122,7 +3126,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3181,7 +3185,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3245,12 +3249,13 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3302,22 +3307,9 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3411,7 +3403,11 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3468,7 +3464,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3528,7 +3524,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3584,7 +3580,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
+          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3635,7 +3631,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
+          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3685,11 +3681,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3739,8 +3731,16 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3787,16 +3787,8 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3899,7 +3891,11 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3952,7 +3948,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -4006,11 +4002,7 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -2217,7 +2217,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,7 +1482,8 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Gold Camry,
+Supv Rx</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -1844,13 +1845,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1924,12 +1924,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1991,13 +1992,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2478,21 +2478,9 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2589,7 +2577,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -2638,7 +2630,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2689,7 +2681,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2740,7 +2732,8 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #856, RACINE-
+MT PLEASANT</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2791,8 +2784,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>PICK #856, RACINE-
-MT PLEASANT</t>
+          <t>1202  N GREENBAY RD</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2847,7 +2839,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1202  N GREENBAY RD</t>
+          <t>https://goo.gl/maps/gCMavYTDGoo</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2890,7 +2882,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gCMavYTDGoo</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2945,7 +2937,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2998,11 +2990,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -3052,9 +3040,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3105,19 +3105,15 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3168,15 +3164,20 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3227,12 +3228,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3292,18 +3293,18 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3344,20 +3345,15 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3392,12 +3388,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3451,12 +3447,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3511,15 +3507,20 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 1:00</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3562,20 +3563,15 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 1:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
@@ -3618,12 +3614,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3670,15 +3666,19 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver, Optima</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3717,19 +3717,15 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Driver, Optima</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3777,15 +3773,19 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2nd Day, work w/ Michael</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3824,17 +3824,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3876,12 +3876,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -3931,17 +3931,18 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3986,18 +3987,17 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -4024,21 +4024,9 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4095,7 +4083,11 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94) </t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4128,7 +4120,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM MEET RYAN RD PARK N RIDE (HWY 100 &amp; 94) </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4159,7 +4151,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>ITEM LEVEL-SCAN</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4190,7 +4182,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ITEM LEVEL-SCAN</t>
+          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4221,7 +4213,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1102-ATRIUM, RACINE</t>
+          <t>3811 SPRING ST</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4252,7 +4244,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>3811 SPRING ST</t>
+          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4281,11 +4273,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HCpmGJRX9sG2</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -4311,9 +4299,22 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4340,20 +4341,15 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4365,41 +4361,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -3063,7 +3063,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3186,12 +3186,13 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3243,22 +3244,9 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3356,7 +3344,11 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3401,7 +3393,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3460,7 +3452,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3525,7 +3517,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
+          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3576,7 +3568,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
+          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3625,11 +3617,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3680,8 +3668,16 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3727,16 +3723,8 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3839,7 +3827,11 @@
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3893,7 +3885,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3947,11 +3939,7 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Milwaukee Schedule.xlsx
@@ -821,8 +821,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>11:00 REQUIRED MEET AT 
-TIPP ST PARK AND RIDE</t>
+          <t>11:00 REQUIRED MEET AT TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
